--- a/统计.xlsx
+++ b/统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaoping/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaoping/Desktop/stockMarketCount/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>代码</t>
     <rPh sb="0" eb="1">
@@ -650,6 +650,25 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>feng'xian'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国软件</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'guo'ruan'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双龙+抓板。
+此个股还是行业板块里的龙二。
+板块效应：软件服务板块走出深V急跌迎来的必然也是急涨，今天开始确认了反抽，不知道能持续多久，后期继续观望。</t>
+    <rPh sb="0" eb="1">
+      <t>shuang'long</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhua'ban</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1027,10 +1046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,6 +1237,51 @@
         <v>15</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>20180703</v>
+      </c>
+      <c r="B5" s="5">
+        <v>600536</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24.78</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>26.32</v>
+      </c>
+      <c r="G5" s="2">
+        <f>(F5-E5)*1.618+E5</f>
+        <v>35.787760000000006</v>
+      </c>
+      <c r="H5" s="2">
+        <f>(F5-E5)*0.618+E5</f>
+        <v>20.467759999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <f>D5*0.94</f>
+        <v>23.293199999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <f>(G5-I5)/(I5-H5)</f>
+        <v>4.422164335466336</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="操作策略描述" sheetId="2" r:id="rId2"/>
+    <sheet name="实盘" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$M$4</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>代码</t>
     <rPh sb="0" eb="1">
@@ -669,6 +670,49 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>zhua'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180705 中国软件实际建仓23.69，当天以满足预期建仓为，实际建仓高于预期建仓。</t>
+    <rPh sb="9" eb="10">
+      <t>zhong'guo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ruan'j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jian'cang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dang't</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'man'zu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu'qi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jian'cang'wei</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jian'cang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gao'yu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yu'qi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>jian'cang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1315,4 +1359,28 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="黄金波段" sheetId="1" r:id="rId1"/>
     <sheet name="操作策略描述" sheetId="2" r:id="rId2"/>
     <sheet name="实盘" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">黄金波段!$A$1:$N$4</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>代码</t>
     <rPh sb="0" eb="1">
@@ -713,6 +713,16 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>jian'cang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计盈利</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1090,11 +1100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,12 +1113,14 @@
     <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="9" width="27.5" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="54.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="54.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1140,16 +1152,19 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>20180701</v>
       </c>
@@ -1184,17 +1199,21 @@
         <f>(G2-I2)/(I2-H2)</f>
         <v>5.021737001860374</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4">
+        <f>G2/I2-1</f>
+        <v>0.15383638617821171</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>-2.7799999999999998E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>0.29580000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20180702</v>
       </c>
@@ -1229,17 +1248,21 @@
         <f>(G3-I3)/(I3-H3)</f>
         <v>2.0870344552877924</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4">
+        <f>G3/I3-1</f>
+        <v>0.12386524822695044</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>20180702</v>
       </c>
@@ -1274,17 +1297,21 @@
         <f>(G4-I4)/(I4-H4)</f>
         <v>0.20550276556516908</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4">
+        <f>G4/I4-1</f>
+        <v>2.7234794376362892E-2</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>20180703</v>
       </c>
@@ -1319,18 +1346,22 @@
         <f>(G5-I5)/(I5-H5)</f>
         <v>4.422164335466336</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4">
+        <f>G5/I5-1</f>
+        <v>0.53640375731973311</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M4"/>
+  <autoFilter ref="A1:N4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1365,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="黄金波段" sheetId="1" r:id="rId1"/>
-    <sheet name="操作策略描述" sheetId="2" r:id="rId2"/>
-    <sheet name="实盘" sheetId="3" r:id="rId3"/>
+    <sheet name="操作策略描述" sheetId="2" r:id="rId1"/>
+    <sheet name="实盘" sheetId="3" r:id="rId2"/>
+    <sheet name="七月" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">黄金波段!$A$1:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">七月!$A$1:$N$4</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>代码</t>
     <rPh sb="0" eb="1">
@@ -674,55 +674,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20180705 中国软件实际建仓23.69，当天以满足预期建仓为，实际建仓高于预期建仓。</t>
-    <rPh sb="9" eb="10">
-      <t>zhong'guo</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ruan'j</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi'j</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jian'cang</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>dang't</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yi'man'zu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'qi</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jian'cang'wei</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>shi'ji</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>jian'cang</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>gao'yu</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>yu'qi</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>jian'cang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预计盈利</t>
     <rPh sb="0" eb="1">
       <t>yu'ji</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ying'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珀莱雅</t>
+    <rPh sb="0" eb="1">
+      <t>bo'lai'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号收盘后自选，六号满足建仓价，10号满足止盈价，收益15%，共计三个交易日。</t>
+    <rPh sb="0" eb="1">
+      <t>yi'hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'pan'hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'xuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu'hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>man'zu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian'cang'jia</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>man'zu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi'ying'j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shou'yi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jiao'yi'ri</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1100,11 +1114,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="168.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="182" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>201807</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1365,53 +1439,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="168.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="182" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="85.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="操作策略描述" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>代码</t>
     <rPh sb="0" eb="1">
@@ -737,6 +737,20 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>jiao'yi'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至纯科技</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chun'ke'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金波段票</t>
+    <rPh sb="0" eb="1">
+      <t>huang'jin'bo'duan'piao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1141,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1174,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,6 +1448,55 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>20180716</v>
+      </c>
+      <c r="B6">
+        <v>603690</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27.82</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18.12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>28.66</v>
+      </c>
+      <c r="G6" s="2">
+        <f>(F6-E6)*1.618+E6</f>
+        <v>35.173720000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(F6-E6)*0.618+E6</f>
+        <v>24.63372</v>
+      </c>
+      <c r="I6" s="2">
+        <f>D6*0.94</f>
+        <v>26.1508</v>
+      </c>
+      <c r="J6" s="2">
+        <f>(G6-I6)/(I6-H6)</f>
+        <v>5.9475571492604233</v>
+      </c>
+      <c r="K6" s="4">
+        <f>G6/I6-1</f>
+        <v>0.34503418633464378</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N4"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -828,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,6 +851,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1191,8 +1192,8 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,10 +1453,10 @@
       <c r="A6" s="2">
         <v>20180716</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>603690</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2">

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>代码</t>
     <rPh sb="0" eb="1">
@@ -751,6 +751,26 @@
     <t>黄金波段票</t>
     <rPh sb="0" eb="1">
       <t>huang'jin'bo'duan'piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵横通信</t>
+    <rPh sb="0" eb="1">
+      <t>zong'heng'tong'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金618交易计划</t>
+    <rPh sb="0" eb="1">
+      <t>huang'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'hua</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1189,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,6 +1518,55 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>20180718</v>
+      </c>
+      <c r="B7" s="5">
+        <v>603602</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>36.85</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25.64</v>
+      </c>
+      <c r="F7" s="2">
+        <v>38.31</v>
+      </c>
+      <c r="G7" s="2">
+        <f>(F7-E7)*1.618+E7</f>
+        <v>46.140060000000005</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(F7-E7)*0.618+E7</f>
+        <v>33.470060000000004</v>
+      </c>
+      <c r="I7" s="2">
+        <f>D7*0.94</f>
+        <v>34.639000000000003</v>
+      </c>
+      <c r="J7" s="2">
+        <f>(G7-I7)/(I7-H7)</f>
+        <v>9.8388796687597395</v>
+      </c>
+      <c r="K7" s="4">
+        <f>G7/I7-1</f>
+        <v>0.33202632870463922</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N4"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="操作策略描述" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>代码</t>
     <rPh sb="0" eb="1">
@@ -771,6 +771,61 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国软件到了买点</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'guo'ruan'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mai'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵横通信到了买点</t>
+    <rPh sb="0" eb="1">
+      <t>zong'heng'tong'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mai'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：0719  触发买点</t>
+    <rPh sb="0" eb="1">
+      <t>ri'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mai'dain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0709号触发买点</t>
+    <rPh sb="4" eb="5">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mai'dain</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1174,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1256,22 @@
         <v>201807</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1211,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
@@ -1293,23 +1364,23 @@
         <v>41.6</v>
       </c>
       <c r="G2" s="2">
-        <f>(F2-E2)*1.618+E2</f>
+        <f t="shared" ref="G2:G7" si="0">(F2-E2)*1.618+E2</f>
         <v>46.160840000000007</v>
       </c>
       <c r="H2" s="2">
-        <f>(F2-E2)*0.618+E2</f>
+        <f t="shared" ref="H2:H7" si="1">(F2-E2)*0.618+E2</f>
         <v>38.780839999999998</v>
       </c>
       <c r="I2" s="2">
-        <f>D2*0.94</f>
+        <f t="shared" ref="I2:I7" si="2">D2*0.94</f>
         <v>40.006399999999999</v>
       </c>
       <c r="J2" s="2">
-        <f>(G2-I2)/(I2-H2)</f>
+        <f t="shared" ref="J2:J7" si="3">(G2-I2)/(I2-H2)</f>
         <v>5.021737001860374</v>
       </c>
       <c r="K2" s="4">
-        <f>G2/I2-1</f>
+        <f t="shared" ref="K2:K7" si="4">G2/I2-1</f>
         <v>0.15383638617821171</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1342,23 +1413,23 @@
         <v>5.13</v>
       </c>
       <c r="G3" s="2">
-        <f>(F3-E3)*1.618+E3</f>
+        <f t="shared" si="0"/>
         <v>5.7047400000000001</v>
       </c>
       <c r="H3" s="2">
-        <f>(F3-E3)*0.618+E3</f>
+        <f t="shared" si="1"/>
         <v>4.7747399999999995</v>
       </c>
       <c r="I3" s="2">
-        <f>D3*0.94</f>
+        <f t="shared" si="2"/>
         <v>5.0759999999999996</v>
       </c>
       <c r="J3" s="2">
-        <f>(G3-I3)/(I3-H3)</f>
+        <f t="shared" si="3"/>
         <v>2.0870344552877924</v>
       </c>
       <c r="K3" s="4">
-        <f>G3/I3-1</f>
+        <f t="shared" si="4"/>
         <v>0.12386524822695044</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1391,23 +1462,23 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="G4" s="2">
-        <f>(F4-E4)*1.618+E4</f>
+        <f t="shared" si="0"/>
         <v>10.930600000000002</v>
       </c>
       <c r="H4" s="2">
-        <f>(F4-E4)*0.618+E4</f>
+        <f t="shared" si="1"/>
         <v>9.2306000000000008</v>
       </c>
       <c r="I4" s="2">
-        <f>D4*0.94</f>
+        <f t="shared" si="2"/>
         <v>10.6408</v>
       </c>
       <c r="J4" s="2">
-        <f>(G4-I4)/(I4-H4)</f>
+        <f t="shared" si="3"/>
         <v>0.20550276556516908</v>
       </c>
       <c r="K4" s="4">
-        <f>G4/I4-1</f>
+        <f t="shared" si="4"/>
         <v>2.7234794376362892E-2</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1440,23 +1511,23 @@
         <v>26.32</v>
       </c>
       <c r="G5" s="2">
-        <f>(F5-E5)*1.618+E5</f>
+        <f t="shared" si="0"/>
         <v>35.787760000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>(F5-E5)*0.618+E5</f>
+        <f t="shared" si="1"/>
         <v>20.467759999999998</v>
       </c>
       <c r="I5" s="2">
-        <f>D5*0.94</f>
+        <f t="shared" si="2"/>
         <v>23.293199999999999</v>
       </c>
       <c r="J5" s="2">
-        <f>(G5-I5)/(I5-H5)</f>
+        <f t="shared" si="3"/>
         <v>4.422164335466336</v>
       </c>
       <c r="K5" s="4">
-        <f>G5/I5-1</f>
+        <f t="shared" si="4"/>
         <v>0.53640375731973311</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1489,23 +1560,23 @@
         <v>28.66</v>
       </c>
       <c r="G6" s="2">
-        <f>(F6-E6)*1.618+E6</f>
+        <f t="shared" si="0"/>
         <v>35.173720000000003</v>
       </c>
       <c r="H6" s="2">
-        <f>(F6-E6)*0.618+E6</f>
+        <f t="shared" si="1"/>
         <v>24.63372</v>
       </c>
       <c r="I6" s="2">
-        <f>D6*0.94</f>
+        <f t="shared" si="2"/>
         <v>26.1508</v>
       </c>
       <c r="J6" s="2">
-        <f>(G6-I6)/(I6-H6)</f>
+        <f t="shared" si="3"/>
         <v>5.9475571492604233</v>
       </c>
       <c r="K6" s="4">
-        <f>G6/I6-1</f>
+        <f t="shared" si="4"/>
         <v>0.34503418633464378</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -1538,23 +1609,23 @@
         <v>38.31</v>
       </c>
       <c r="G7" s="2">
-        <f>(F7-E7)*1.618+E7</f>
+        <f t="shared" si="0"/>
         <v>46.140060000000005</v>
       </c>
       <c r="H7" s="2">
-        <f>(F7-E7)*0.618+E7</f>
+        <f t="shared" si="1"/>
         <v>33.470060000000004</v>
       </c>
       <c r="I7" s="2">
-        <f>D7*0.94</f>
+        <f t="shared" si="2"/>
         <v>34.639000000000003</v>
       </c>
       <c r="J7" s="2">
-        <f>(G7-I7)/(I7-H7)</f>
+        <f t="shared" si="3"/>
         <v>9.8388796687597395</v>
       </c>
       <c r="K7" s="4">
-        <f>G7/I7-1</f>
+        <f t="shared" si="4"/>
         <v>0.33202632870463922</v>
       </c>
       <c r="L7" s="3" t="s">

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="操作策略描述" sheetId="2" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1282,9 +1282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>20180718</v>
+        <v>20180717</v>
       </c>
       <c r="B7" s="5">
         <v>603602</v>
